--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_27_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_27_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.6403247948123614, 4.241619516906987]</t>
+          <t>[3.6429461156752296, 4.238998196044118]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.22454834386328404, 0.5717354822231231]</t>
+          <t>[0.22435249162285587, 0.5719313344635513]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>3.228314713865643e-05</v>
+        <v>3.283632113482149e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>3.228314713865643e-05</v>
+        <v>3.283632113482149e-05</v>
       </c>
       <c r="W2" t="n">
         <v>13.06642642642676</v>
